--- a/Survival/Assets/Excel/ResourceSheet.xlsx
+++ b/Survival/Assets/Excel/ResourceSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyb1\Documents\GitHub\Survival\Survival\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF899A-AB8D-4C51-8736-C1170150CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF98049-DA4E-4158-850F-1B20179183CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="675" windowWidth="18720" windowHeight="14805" xr2:uid="{A5162182-80A2-470B-BFF2-2F6061CA9491}"/>
+    <workbookView xWindow="19005" yWindow="675" windowWidth="17595" windowHeight="14805" xr2:uid="{A5162182-80A2-470B-BFF2-2F6061CA9491}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>ResourceObject/210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근입니다. 당근당근 바니바니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceObject/103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC8F89D-C4A7-441F-8BC8-0B22CB8C585A}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,6 +650,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
